--- a/Data/Regression/regression_data_quarterly.xlsx
+++ b/Data/Regression/regression_data_quarterly.xlsx
@@ -532,19 +532,19 @@
         <v>1.54823342596266</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02543210704890914</v>
+        <v>-0.01825511657770195</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1167418683993576</v>
+        <v>-0.1221470675581579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2178490664712462</v>
+        <v>0.1494519429949486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0508237922368053</v>
+        <v>0.0025731631270741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0027472527472527</v>
+        <v>0.0041782729805013</v>
       </c>
       <c r="I2" t="n">
         <v>0.05530531611029096</v>
@@ -582,19 +582,19 @@
         <v>1.10540860639557</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02354893866038624</v>
+        <v>-0.01996723618336083</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1158241878630537</v>
+        <v>-0.1237381235252662</v>
       </c>
       <c r="F3" t="n">
-        <v>0.203316242443501</v>
+        <v>0.1613668901264994</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0498455792573439</v>
+        <v>0.002246503268825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008645533141210301</v>
+        <v>0.017391304347826</v>
       </c>
       <c r="I3" t="n">
         <v>0.04182303987832148</v>
@@ -632,19 +632,19 @@
         <v>1.37632717263075</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01789407658470647</v>
+        <v>-0.02091616087920494</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1191115958175627</v>
+        <v>-0.1307411573873652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1502295092420216</v>
+        <v>0.1599814572333462</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0445380192728156</v>
+        <v>0.0023249924376191</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0018181818181818</v>
+        <v>0.0075642965204236</v>
       </c>
       <c r="I4" t="n">
         <v>0.06328248835857857</v>
@@ -682,19 +682,19 @@
         <v>1.73092053501181</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02555654215198492</v>
+        <v>-0.02243467534436397</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1314695405574128</v>
+        <v>-0.1280142670982445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1943913551658331</v>
+        <v>0.1752513673116333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0569251108173263</v>
+        <v>0.0029066455986918</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0081967213114754</v>
+        <v>0.0037926675094816</v>
       </c>
       <c r="I5" t="n">
         <v>0.06716777226794486</v>
@@ -732,19 +732,19 @@
         <v>1.72009382329947</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02441929669886006</v>
+        <v>-0.02155606329144295</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1214825146051171</v>
+        <v>-0.1256542724621025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2010107938433427</v>
+        <v>0.1715505797699341</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0488973437610089</v>
+        <v>0.0020262405334329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0072046109510086</v>
+        <v>0.0088652482269503</v>
       </c>
       <c r="I6" t="n">
         <v>0.0491875167895203</v>
@@ -782,19 +782,19 @@
         <v>2.53807106598984</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0204893796315376</v>
+        <v>-0.03082211571896784</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1135223353539098</v>
+        <v>-0.1520504765157774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1804876508896796</v>
+        <v>0.2027097607666466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0420781451266638</v>
+        <v>0.0018135992359437</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0051020408163265</v>
+        <v>0.0095057034220532</v>
       </c>
       <c r="I7" t="n">
         <v>0.05019726510690081</v>
@@ -832,19 +832,19 @@
         <v>2.01706749418152</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01975123456813301</v>
+        <v>-0.02230933624030783</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.112172245165941</v>
+        <v>-0.1247337060519404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1760795153820288</v>
+        <v>0.1788557154793268</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0607097050021376</v>
+        <v>0.0027946848258406</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0058685446009389</v>
+        <v>0.0283018867924528</v>
       </c>
       <c r="I8" t="n">
         <v>0.0402676043529083</v>
@@ -882,19 +882,19 @@
         <v>1.66279969064191</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02010748312431312</v>
+        <v>-0.0223569143758156</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1185463381588619</v>
+        <v>-0.1327738459480355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1696170749480885</v>
+        <v>0.1683834208174218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0514447745071563</v>
+        <v>0.0022724997868372</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0104986876640419</v>
+        <v>0.0146818923327895</v>
       </c>
       <c r="I9" t="n">
         <v>0.03488047985556966</v>
@@ -932,19 +932,19 @@
         <v>1.99846272098386</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01831646258833616</v>
+        <v>-0.01838594437050911</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1105831607583898</v>
+        <v>-0.1328705018143704</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1656351876969344</v>
+        <v>0.1383749148189084</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0528350515463917</v>
+        <v>0.0019216828744546</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0064184852374839</v>
+        <v>0.0195729537366548</v>
       </c>
       <c r="I10" t="n">
         <v>0.02829141930062712</v>
@@ -982,19 +982,19 @@
         <v>1.29474485910132</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0214376475316576</v>
+        <v>-0.02422830193202661</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1022118826816668</v>
+        <v>-0.1260668063683586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2097373316018838</v>
+        <v>0.1921862116601349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0646519524617996</v>
+        <v>0.0025982811370939</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0052521008403361</v>
+        <v>0.008875739644970401</v>
       </c>
       <c r="I11" t="n">
         <v>0.06513816457623893</v>
@@ -1032,19 +1032,19 @@
         <v>1.21673003802284</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0157165530219937</v>
+        <v>-0.02013553800711702</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.103003573482577</v>
+        <v>-0.1240455665918242</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1525825997158453</v>
+        <v>0.1623237215189934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0680635085892764</v>
+        <v>0.0021798385498652</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005736137667304</v>
+        <v>0.0171526586620926</v>
       </c>
       <c r="I12" t="n">
         <v>0.05050451781577</v>
@@ -1082,19 +1082,19 @@
         <v>1.17915557246101</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01700389195065901</v>
+        <v>-0.01855883377691713</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1103554203588535</v>
+        <v>-0.1175797756923278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1540829792987585</v>
+        <v>0.1578403570481392</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0555732992654104</v>
+        <v>0.0021001008987023</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0011494252873563</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="I13" t="n">
         <v>0.05300118770656243</v>
@@ -1132,19 +1132,19 @@
         <v>1.13036925395629</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01871700872246604</v>
+        <v>-0.01766240809213682</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1056531233825062</v>
+        <v>-0.1301584042170622</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1771552806319133</v>
+        <v>0.1356993288169208</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0539971025944949</v>
+        <v>0.0020627030412149</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0048780487804878</v>
+        <v>0.0113851992409867</v>
       </c>
       <c r="I14" t="n">
         <v>0.04402061711611294</v>
@@ -1174,19 +1174,19 @@
         <v>0.78947368421052</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02331100240646828</v>
+        <v>-0.02459719904423159</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.122900868986003</v>
+        <v>-0.1391546149010723</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1896732106029546</v>
+        <v>0.1767616479102631</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0488994497248624</v>
+        <v>0.0018328744963305</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0063938618925831</v>
+        <v>0.0020242914979757</v>
       </c>
       <c r="I15" t="n">
         <v>0.03830173485215958</v>
@@ -1216,19 +1216,19 @@
         <v>1.05184072126217</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01342164331409208</v>
+        <v>-0.01457845270567223</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1332679593163275</v>
+        <v>-0.1517706259365739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007117043207227</v>
+        <v>0.09605582513552177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07303786401237471</v>
+        <v>0.0024812422832177</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003683241252302</v>
+        <v>0.0287081339712918</v>
       </c>
       <c r="I16" t="n">
         <v>0.04290805928286084</v>
@@ -1258,19 +1258,19 @@
         <v>1.16541353383458</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02194976013631382</v>
+        <v>-0.0211089765836642</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1204220225341337</v>
+        <v>-0.1445442214905037</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1822736379476782</v>
+        <v>0.146038190707271</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0401996847083552</v>
+        <v>0.0015608485116633</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0049019607843137</v>
+        <v>0.0026246719160104</v>
       </c>
       <c r="I17" t="n">
         <v>0.04692934321469056</v>
@@ -1300,19 +1300,19 @@
         <v>0.968703427719809</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01968011143473244</v>
+        <v>-0.01933631054695977</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1129979370811191</v>
+        <v>-0.1392876037804175</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1741634576975017</v>
+        <v>0.1388229104539902</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0353875134553283</v>
+        <v>0.0016216283643591</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0076045627376425</v>
+        <v>0.0076923076923076</v>
       </c>
       <c r="I18" t="n">
         <v>0.04474779541294913</v>
@@ -1350,19 +1350,19 @@
         <v>1.86497575531515</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02253076382206359</v>
+        <v>-0.01915035147080334</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1090387704298978</v>
+        <v>-0.1305003078515587</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2066307583369977</v>
+        <v>0.1467456421067332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0403915252137281</v>
+        <v>0.0017766282225237</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00920245398773</v>
+        <v>0.0119331742243436</v>
       </c>
       <c r="I19" t="n">
         <v>0.05558847666799414</v>
@@ -1400,19 +1400,19 @@
         <v>1.82156133828997</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02755704451028737</v>
+        <v>-0.02645568311684129</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1291294873751885</v>
+        <v>-0.147782523570266</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2134062875214534</v>
+        <v>0.1790176705452078</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0545250511584923</v>
+        <v>0.0018817928680499</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0121065375302663</v>
+        <v>0.026252983293556</v>
       </c>
       <c r="I20" t="n">
         <v>0.08180728463887621</v>
@@ -1450,19 +1450,19 @@
         <v>2.00668896321071</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02581125574549001</v>
+        <v>-0.03177946859128868</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1199387583834851</v>
+        <v>-0.1413544794816261</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2152036263620691</v>
+        <v>0.2248210930975097</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0612269066792989</v>
+        <v>0.0031317874169738</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0019342359767891</v>
+        <v>0.0129496402877697</v>
       </c>
       <c r="I21" t="n">
         <v>0.08644616533336934</v>
@@ -1500,19 +1500,19 @@
         <v>1.62361623616238</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02732664453167024</v>
+        <v>-0.02983140346423408</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1206019925463564</v>
+        <v>-0.1445884542898249</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2265853486721338</v>
+        <v>0.2063194022700982</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0515953442584978</v>
+        <v>0.0022274099051806</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0011223344556677</v>
+        <v>0.0147874306839186</v>
       </c>
       <c r="I22" t="n">
         <v>0.07115774464834555</v>
@@ -1550,19 +1550,19 @@
         <v>1.24496521420726</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.02551289771813615</v>
+        <v>-0.02737756556607301</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1275404004139713</v>
+        <v>-0.1410565128898982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2000377734061227</v>
+        <v>0.1940893405428404</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05168986083499</v>
+        <v>0.002203045950488</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0072115384615384</v>
+        <v>0.0158102766798418</v>
       </c>
       <c r="I23" t="n">
         <v>0.07511752690779626</v>
@@ -1600,19 +1600,19 @@
         <v>1.64293537787514</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0291248276526323</v>
+        <v>-0.02267343011853555</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1342763275585888</v>
+        <v>-0.1334397499021595</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2169021761480947</v>
+        <v>0.1699151125145253</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0478813807653988</v>
+        <v>0.0019254905323552</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00734394124847</v>
+        <v>0.0182186234817813</v>
       </c>
       <c r="I24" t="n">
         <v>0.07574226677197893</v>
@@ -1650,19 +1650,19 @@
         <v>1.67577413479055</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02504393275196021</v>
+        <v>-0.02457588174538255</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1146465738677856</v>
+        <v>-0.127467427333382</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2184446678785337</v>
+        <v>0.1928012689948318</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0568089783639939</v>
+        <v>0.0024866971809345</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005091649694501</v>
+        <v>0.008130081300813</v>
       </c>
       <c r="I25" t="n">
         <v>0.09571128586489668</v>
@@ -1700,19 +1700,19 @@
         <v>1.70660856935366</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02374324726824474</v>
+        <v>-0.02753307746568784</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1276958496754994</v>
+        <v>-0.1409430806084989</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1859359354950146</v>
+        <v>0.1953489121056404</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0831541635190888</v>
+        <v>0.0034542954307782</v>
       </c>
       <c r="H26" t="n">
-        <v>0.009783368273934299</v>
+        <v>0.0369487485101311</v>
       </c>
       <c r="I26" t="n">
         <v>0.107369366644145</v>
@@ -1750,19 +1750,19 @@
         <v>1.84448462929476</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02559158343738125</v>
+        <v>-0.02486476315649891</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1239930166379132</v>
+        <v>-0.1347382029652613</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2063953610558109</v>
+        <v>0.1845413001605019</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0514933058702368</v>
+        <v>0.0024511091925978</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0052631578947368</v>
+        <v>0.0122511485451761</v>
       </c>
       <c r="I27" t="n">
         <v>0.1410563626847043</v>
@@ -1800,19 +1800,19 @@
         <v>1.4727011494253</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02902053023476323</v>
+        <v>-0.02945837091246329</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1376767445468615</v>
+        <v>-0.1474989209631965</v>
       </c>
       <c r="F28" t="n">
-        <v>0.210787452378244</v>
+        <v>0.1997192299448324</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0738737667894924</v>
+        <v>0.0028653994871586</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0080450522928399</v>
+        <v>0.0255681818181818</v>
       </c>
       <c r="I28" t="n">
         <v>0.1443748167859763</v>
@@ -1850,19 +1850,19 @@
         <v>1.28986026513795</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02424392144941047</v>
+        <v>-0.02503521495480292</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1194636352355676</v>
+        <v>-0.1386585027942994</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2029397598826157</v>
+        <v>0.180553045433808</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06393630496411121</v>
+        <v>0.0023974952483852</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0056603773584905</v>
+        <v>0.0213815789473684</v>
       </c>
       <c r="I29" t="n">
         <v>0.1276944852922422</v>
@@ -1900,19 +1900,19 @@
         <v>1.78507675830061</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.02294375636944683</v>
+        <v>-0.03029643288977373</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.1282600340721358</v>
+        <v>-0.1500678061758363</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1788846894937111</v>
+        <v>0.2018849589516557</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0596672741167479</v>
+        <v>0.0023396940937274</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0039408866995073</v>
+        <v>0.0215588723051409</v>
       </c>
       <c r="I30" t="n">
         <v>0.1222559237585514</v>
@@ -1950,19 +1950,19 @@
         <v>2.05965909090909</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01995855591786148</v>
+        <v>-0.02308631289859756</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.1191436876952328</v>
+        <v>-0.1311989156929524</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1675166876562951</v>
+        <v>0.1759642050139114</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0522924149587999</v>
+        <v>0.0022305808257522</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="I31" t="n">
         <v>0.1330128305779174</v>
@@ -2000,19 +2000,19 @@
         <v>2.26548672566371</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01940473613757738</v>
+        <v>-0.03188339801553428</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1202158502136145</v>
+        <v>-0.146616874260868</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1614157875446259</v>
+        <v>0.2174606311604063</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0443708980759522</v>
+        <v>0.0018803412387733</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0063211125158027</v>
+        <v>0.0219560878243512</v>
       </c>
       <c r="I32" t="n">
         <v>0.1256336417698612</v>
@@ -2050,19 +2050,19 @@
         <v>3.07746727980189</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03007662736074648</v>
+        <v>-0.03281738836353187</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.136836584547856</v>
+        <v>-0.1444936012105033</v>
       </c>
       <c r="F33" t="n">
-        <v>0.219799605932343</v>
+        <v>0.2271200114648839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0560391730141458</v>
+        <v>0.0032134604274985</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003883495145631</v>
+        <v>0.0037453183520599</v>
       </c>
       <c r="I33" t="n">
         <v>0.096074345457326</v>
@@ -2100,19 +2100,19 @@
         <v>2.94633461943178</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02625374592018625</v>
+        <v>-0.03237482139739632</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.130885172342745</v>
+        <v>-0.1446304851282281</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2005860973421525</v>
+        <v>0.2238450722798384</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08613786386754679</v>
+        <v>0.0036025182192929</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0050251256281407</v>
+        <v>0.0251366120218579</v>
       </c>
       <c r="I34" t="n">
         <v>0.1024993289141847</v>
@@ -2150,19 +2150,19 @@
         <v>2.88796102992348</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.02941648416607796</v>
+        <v>-0.03400962996410831</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1459997405896095</v>
+        <v>-0.1525447533470215</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2014831262527016</v>
+        <v>0.2229485394803477</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07999802352011059</v>
+        <v>0.0034621010428395</v>
       </c>
       <c r="H35" t="n">
-        <v>0.006176652254478</v>
+        <v>0.0314083080040526</v>
       </c>
       <c r="I35" t="n">
         <v>0.1201330846438002</v>
@@ -2200,19 +2200,19 @@
         <v>3.08065074420214</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.02815520522371878</v>
+        <v>-0.03114642725165899</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1425223237297399</v>
+        <v>-0.1481511702467859</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1975494398835967</v>
+        <v>0.2102340953485294</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1228895380502054</v>
+        <v>0.0045245687245778</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0100725221595487</v>
+        <v>0.0217560217560217</v>
       </c>
       <c r="I36" t="n">
         <v>0.1174839147561714</v>
@@ -2250,19 +2250,19 @@
         <v>1.61290322580647</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.02268478890770105</v>
+        <v>-0.03459240733198962</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.1381921130283565</v>
+        <v>-0.1557256119479111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1641540056851596</v>
+        <v>0.2221369169739432</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0995203231507195</v>
+        <v>0.0038373667136862</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0045662100456621</v>
+        <v>0.0287037037037037</v>
       </c>
       <c r="I37" t="n">
         <v>0.1143206426687877</v>
@@ -2300,19 +2300,19 @@
         <v>0.81771720613289</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01684855663270466</v>
+        <v>-0.02143172471727046</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1182876575057502</v>
+        <v>-0.1437134708036366</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1424371484563859</v>
+        <v>0.1491281547750925</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0610593802472904</v>
+        <v>0.0026899517063074</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0025</v>
+        <v>0.0116580310880829</v>
       </c>
       <c r="I38" t="n">
         <v>0.04697029933449554</v>
@@ -2350,19 +2350,19 @@
         <v>0.270544470747354</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01733453853046791</v>
+        <v>-0.02029102179839002</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1144171965036922</v>
+        <v>-0.1326148529671805</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1515029126754433</v>
+        <v>0.1530071582812194</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0489820299666484</v>
+        <v>0.0019850533319838</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0040650406504065</v>
+        <v>0.0049342105263157</v>
       </c>
       <c r="I39" t="n">
         <v>0.01972602853452947</v>
@@ -2400,19 +2400,19 @@
         <v>-0.23505708529214</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.02019034437272587</v>
+        <v>-0.02023348948884704</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.1130445025256062</v>
+        <v>-0.1399791186216012</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1786052742206766</v>
+        <v>0.1445464844191743</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0526288391462779</v>
+        <v>0.0017903266737816</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0069238377843719</v>
+        <v>0.0174757281553398</v>
       </c>
       <c r="I40" t="n">
         <v>0.01836181436833747</v>
@@ -2450,19 +2450,19 @@
         <v>0.405268490374866</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0169901326257321</v>
+        <v>-0.02082979749887235</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1126818022571789</v>
+        <v>-0.1406888616364504</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1507797380357365</v>
+        <v>0.1480557682860351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0474878801234023</v>
+        <v>0.0016205656440083</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="I41" t="n">
         <v>0.02840420909733673</v>
@@ -2500,19 +2500,19 @@
         <v>0.811084825954701</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.02028480559694811</v>
+        <v>-0.02315831554863965</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1231611629220234</v>
+        <v>-0.1534987912091829</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1647013158668448</v>
+        <v>0.1508696932803874</v>
       </c>
       <c r="G42" t="n">
-        <v>0.048753339269813</v>
+        <v>0.001935158820431</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.007889546351084799</v>
       </c>
       <c r="I42" t="n">
         <v>0.0253639091408325</v>
@@ -2550,19 +2550,19 @@
         <v>1.11298482293426</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.02452020688867381</v>
+        <v>-0.02910633803290104</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1297492746232204</v>
+        <v>-0.1659187791528303</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1889814564272376</v>
+        <v>0.1754252181791354</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0520450119021856</v>
+        <v>0.0018692271183965</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0051975051975051</v>
+        <v>0.009765625</v>
       </c>
       <c r="I43" t="n">
         <v>0.03690602169790063</v>
@@ -2600,19 +2600,19 @@
         <v>1.11073712554694</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.02209907579726944</v>
+        <v>-0.0274418501315959</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1272250311812611</v>
+        <v>-0.1638912973465088</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1737006907530977</v>
+        <v>0.1674393367792842</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0541555489672892</v>
+        <v>0.0020845993775666</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0072992700729927</v>
+        <v>0.0141342756183745</v>
       </c>
       <c r="I44" t="n">
         <v>0.04118118740765333</v>
@@ -2650,19 +2650,19 @@
         <v>1.3790783720148</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02195362669691107</v>
+        <v>-0.02335893022952247</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1275721292198575</v>
+        <v>-0.1566870005540464</v>
       </c>
       <c r="F45" t="n">
-        <v>0.172087953937621</v>
+        <v>0.1490802054217971</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0453629999040951</v>
+        <v>0.0022429599242169</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0084566596194503</v>
+        <v>0.0209424083769633</v>
       </c>
       <c r="I45" t="n">
         <v>0.03829774564787527</v>
@@ -2700,19 +2700,19 @@
         <v>1.87730472678511</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.02661975911270382</v>
+        <v>-0.02521879302082232</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1243330281885038</v>
+        <v>-0.1435482697112134</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2141004646998952</v>
+        <v>0.1756816231331581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0581289736603088</v>
+        <v>0.0024433841230485</v>
       </c>
       <c r="H46" t="n">
-        <v>0.009375</v>
+        <v>0.0073746312684365</v>
       </c>
       <c r="I46" t="n">
         <v>0.05740846990801</v>
@@ -2750,19 +2750,19 @@
         <v>2.0013342228152</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.02489677946962016</v>
+        <v>-0.02907365446673213</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1339060572240679</v>
+        <v>-0.1460839210507728</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1859272088637473</v>
+        <v>0.1990202224694347</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0827166046530645</v>
+        <v>0.0034700133017176</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0197726149283242</v>
+        <v>0.0314814814814814</v>
       </c>
       <c r="I47" t="n">
         <v>0.09430418358959797</v>
@@ -2800,19 +2800,19 @@
         <v>2.19707057256991</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.02505399249093084</v>
+        <v>-0.02858110646529869</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.1301423882957389</v>
+        <v>-0.1500928988129352</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1925121616332836</v>
+        <v>0.1904227761029527</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0763020833333333</v>
+        <v>0.0032037107680466</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0073947667804323</v>
+        <v>0.0326659641728134</v>
       </c>
       <c r="I48" t="n">
         <v>0.09526507322326973</v>
@@ -2850,19 +2850,19 @@
         <v>2.2229595222296</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.02032001996410009</v>
+        <v>-0.02695607436896552</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1149265528263001</v>
+        <v>-0.1479234976756752</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1768087484083138</v>
+        <v>0.1822298336135019</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0571865160214854</v>
+        <v>0.0027611253451406</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0048582995951417</v>
+        <v>0.0257400257400257</v>
       </c>
       <c r="I49" t="n">
         <v>0.0492396759302475</v>
@@ -2900,19 +2900,19 @@
         <v>2.13886146758803</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01721807286990364</v>
+        <v>-0.02120367050786776</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.112750038629839</v>
+        <v>-0.1337073226996419</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1527101283435563</v>
+        <v>0.158582716935402</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0627613052044788</v>
+        <v>0.002740091541635</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0022970903522205</v>
+        <v>0.0199750312109862</v>
       </c>
       <c r="I50" t="n">
         <v>0.05530194568393723</v>
@@ -2950,19 +2950,19 @@
         <v>1.86396337475474</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.01947324298934273</v>
+        <v>-0.02437848223125872</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1100096287607526</v>
+        <v>-0.138155946051722</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1770139869455688</v>
+        <v>0.1764562650248296</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0481996030620924</v>
+        <v>0.0024665202493857</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0058823529411764</v>
+        <v>0.0163727959697733</v>
       </c>
       <c r="I51" t="n">
         <v>0.05097809531946253</v>
@@ -3000,19 +3000,19 @@
         <v>2.01954397394137</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01797531393161662</v>
+        <v>-0.02420634604624692</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1175549047398649</v>
+        <v>-0.1467360310442286</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1529099442630137</v>
+        <v>0.1649652500070057</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0600239582442029</v>
+        <v>0.0026692358198909</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0121168923734853</v>
+        <v>0.0197775030902348</v>
       </c>
       <c r="I52" t="n">
         <v>0.04943258923275013</v>
@@ -3050,19 +3050,19 @@
         <v>2.01233365790327</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01803880349136917</v>
+        <v>-0.02314999947508284</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1135058461742412</v>
+        <v>-0.1453998014514609</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1589240034709582</v>
+        <v>0.1592161697883133</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0595253422599888</v>
+        <v>0.0028502513690321</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0057678442682047</v>
+        <v>0.014760147601476</v>
       </c>
       <c r="I53" t="n">
         <v>0.0508830710582211</v>
@@ -3100,19 +3100,19 @@
         <v>1.54639175257732</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01735058535210856</v>
+        <v>-0.02058329614432478</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1088012760449043</v>
+        <v>-0.140030173662084</v>
       </c>
       <c r="F54" t="n">
-        <v>0.159470421513693</v>
+        <v>0.1469918632965184</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0496746480670267</v>
+        <v>0.0026797458789286</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0068493150684931</v>
+        <v>0.0234986945169712</v>
       </c>
       <c r="I54" t="n">
         <v>0.02739603624881816</v>
@@ -3150,19 +3150,19 @@
         <v>1.50882825040127</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01698066434988542</v>
+        <v>-0.02298038037102618</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1260340149832112</v>
+        <v>-0.1516147931026041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1347308054269903</v>
+        <v>0.1515708322437534</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0514297554910899</v>
+        <v>0.0023169929680781</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0056406124093473</v>
+        <v>0.0262008733624454</v>
       </c>
       <c r="I55" t="n">
         <v>0.02990719051014437</v>
@@ -3200,19 +3200,19 @@
         <v>1.62835249042146</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01616217018886311</v>
+        <v>-0.02023965102853399</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1295011598423971</v>
+        <v>-0.1517485361057351</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1248032852256495</v>
+        <v>0.1333762522389767</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0517522924255746</v>
+        <v>0.00250974268166</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0169902912621359</v>
+        <v>0.025</v>
       </c>
       <c r="I56" t="n">
         <v>-0.001660490210864767</v>
@@ -3250,19 +3250,19 @@
         <v>1.33630289532294</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01738381490110504</v>
+        <v>-0.02131699076352497</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1165805661605243</v>
+        <v>-0.1439565080717538</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1491141746315469</v>
+        <v>0.1480793820929563</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0545572354211663</v>
+        <v>0.0024780420942521</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0102929532858273</v>
+        <v>0.0116448326055312</v>
       </c>
       <c r="I57" t="n">
         <v>-0.002552312496548366</v>
@@ -3300,19 +3300,19 @@
         <v>1.20558375634518</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.009350242527758656</v>
+        <v>-0.01097814090213123</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1042244771060951</v>
+        <v>-0.129487795738757</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08971253958166268</v>
+        <v>0.08478127872590983</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08372969577313109</v>
+        <v>0.0030027743023445</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0166130760986066</v>
+        <v>0.0483091787439613</v>
       </c>
       <c r="I58" t="n">
         <v>-0.005319506803349134</v>
@@ -3350,19 +3350,19 @@
         <v>1.0752688172043</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.008774367261680294</v>
+        <v>-0.009521513071943351</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1142293046532135</v>
+        <v>-0.1404600733722733</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07681362753908219</v>
+        <v>0.0677880399984391</v>
       </c>
       <c r="G59" t="n">
-        <v>0.09304190050213081</v>
+        <v>0.0035283558068276</v>
       </c>
       <c r="H59" t="n">
-        <v>0.008616780045351401</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="I59" t="n">
         <v>-0.04723950205903893</v>
@@ -3400,19 +3400,19 @@
         <v>0.848256361922717</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.00706206293821857</v>
+        <v>-0.005689135296868831</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1305662169611587</v>
+        <v>-0.1474420872734024</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05408798005014894</v>
+        <v>0.03858555858829811</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1079456933006899</v>
+        <v>0.0039450020305157</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0144329896907216</v>
+        <v>0.0753676470588235</v>
       </c>
       <c r="I60" t="n">
         <v>0.0079482872065998</v>
@@ -3450,19 +3450,19 @@
         <v>0.502354788069073</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.00562081879021068</v>
+        <v>-0.006056482096913483</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1236587087592843</v>
+        <v>-0.1417988156845053</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04545428984829723</v>
+        <v>0.04271179605892358</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0684014201608916</v>
+        <v>0.0027311317259411</v>
       </c>
       <c r="H61" t="n">
-        <v>0.019053876478318</v>
+        <v>0.0439276485788113</v>
       </c>
       <c r="I61" t="n">
         <v>0.0136950776857576</v>
@@ -3500,19 +3500,19 @@
         <v>-0.0511115000875187</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.004554912477050164</v>
+        <v>-0.005493637287593822</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1348770802734546</v>
+        <v>-0.1453979978109967</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03377084133060541</v>
+        <v>0.03778344523516079</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0866086608660866</v>
+        <v>0.0032438465275184</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0150115473441108</v>
+        <v>0.042079207920792</v>
       </c>
       <c r="I62" t="n">
         <v>0.02574009329051457</v>
@@ -3550,19 +3550,19 @@
         <v>0.968850657230184</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01322673573106946</v>
+        <v>-0.004568636576300899</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1509356628598843</v>
+        <v>-0.1571358292695456</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08763161389729358</v>
+        <v>0.02907444214052552</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.0035411880140678</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0242050308495491</v>
+        <v>0.0478905359179019</v>
       </c>
       <c r="I63" t="n">
         <v>0.01544651437082097</v>
@@ -3600,19 +3600,19 @@
         <v>0.728877081455486</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01073969742093163</v>
+        <v>-0.01622985365979976</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1141650013513462</v>
+        <v>-0.1342861746134228</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09407171456933539</v>
+        <v>0.1208601980548001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0571108076472883</v>
+        <v>0.0020791666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0128095644748078</v>
+        <v>0.0260521042084168</v>
       </c>
       <c r="I64" t="n">
         <v>0.0057258583669938</v>
@@ -3650,19 +3650,19 @@
         <v>0.409231252289495</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.00874018424555115</v>
+        <v>-0.01610049625536527</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.1207548949931124</v>
+        <v>-0.1398932991595666</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07237954408431786</v>
+        <v>0.1150912613548455</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07209062821833161</v>
+        <v>0.0027356049818495</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0164285714285714</v>
+        <v>0.0234604105571847</v>
       </c>
       <c r="I65" t="n">
         <v>0.007491100253379099</v>
@@ -3700,19 +3700,19 @@
         <v>0.302622730329523</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.007670057246492425</v>
+        <v>-0.01452853652503183</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1349511465680343</v>
+        <v>-0.1522167532831668</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05683580644960021</v>
+        <v>0.09544636980927183</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0797175603765861</v>
+        <v>0.0025063232047264</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0115532734274711</v>
+        <v>0.0274809160305343</v>
       </c>
       <c r="I66" t="n">
         <v>0.0197845749386876</v>
@@ -3750,19 +3750,19 @@
         <v>0.13289036544849</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.007978422127379158</v>
+        <v>-0.01400796006466722</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1212386143196997</v>
+        <v>-0.1486655410483926</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06580759910650649</v>
+        <v>0.09422466003811494</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08457069076823751</v>
+        <v>0.0026207523666244</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0205519671168526</v>
+        <v>0.0535966149506347</v>
       </c>
       <c r="I67" t="n">
         <v>0.0196904872381915</v>
@@ -3800,19 +3800,19 @@
         <v>0.49734748010609</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.006275466017690072</v>
+        <v>-0.01340472618853723</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.1255757415315522</v>
+        <v>-0.1560525566170937</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04997355334042201</v>
+        <v>0.08589879255505192</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06386483433734939</v>
+        <v>0.0025593799163501</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0287398673544583</v>
+        <v>0.0524737631184407</v>
       </c>
       <c r="I68" t="n">
         <v>0.0169291645035313</v>
@@ -3850,19 +3850,19 @@
         <v>1.03402268178787</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.008720989248222701</v>
+        <v>-0.0202432991263363</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1131812954840672</v>
+        <v>-0.1515795184373446</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07705327290100135</v>
+        <v>0.1335490397055448</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06423687964192611</v>
+        <v>0.0021410603903827</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0176110260336906</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="I69" t="n">
         <v>0.01304540752420427</v>
@@ -3900,19 +3900,19 @@
         <v>1.64264163593696</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0135207286038176</v>
+        <v>-0.02229876943422133</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1098915522375362</v>
+        <v>-0.1379868794699632</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1230370153894256</v>
+        <v>0.1616006501478664</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0785534381979755</v>
+        <v>0.0025849788552449</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0187537810042347</v>
+        <v>0.0460431654676259</v>
       </c>
       <c r="I70" t="n">
         <v>0.02900833866501587</v>
@@ -3950,19 +3950,19 @@
         <v>1.42667551426675</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01506819135969707</v>
+        <v>-0.02246750781211037</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1006411700870172</v>
+        <v>-0.1329445565650106</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1497219412956813</v>
+        <v>0.1689990804634685</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0879330202888278</v>
+        <v>0.00248977155254</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0186397984886649</v>
+        <v>0.0497076023391812</v>
       </c>
       <c r="I71" t="n">
         <v>0.04520718655601297</v>
@@ -4000,19 +4000,19 @@
         <v>1.55064335202904</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01428061850125342</v>
+        <v>-0.02467208862602949</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1196296076902342</v>
+        <v>-0.1531032443808075</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1193736130793916</v>
+        <v>0.1611467394163353</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0670568486003357</v>
+        <v>0.0020439408722614</v>
       </c>
       <c r="H72" t="n">
-        <v>0.006765899864682</v>
+        <v>0.0226415094339622</v>
       </c>
       <c r="I72" t="n">
         <v>0.04824741852219097</v>
@@ -4050,19 +4050,19 @@
         <v>1.41961043248597</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01162469904086422</v>
+        <v>-0.02096083770297958</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1057994642379796</v>
+        <v>-0.1430581183482726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109874838446405</v>
+        <v>0.1465197357898331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0811066328307707</v>
+        <v>0.0021213734819726</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0085889570552147</v>
+        <v>0.034412955465587</v>
       </c>
       <c r="I73" t="n">
         <v>0.01669227860940347</v>
@@ -4100,19 +4100,19 @@
         <v>1.31926121372033</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01060858280126377</v>
+        <v>-0.02092194959172864</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1061436944661187</v>
+        <v>-0.1310705649923474</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09994548290996276</v>
+        <v>0.1596235553951429</v>
       </c>
       <c r="G74" t="n">
-        <v>0.08397932816537459</v>
+        <v>0.0024499963127145</v>
       </c>
       <c r="H74" t="n">
-        <v>0.011076923076923</v>
+        <v>0.0367892976588628</v>
       </c>
       <c r="I74" t="n">
         <v>0.02544300339265057</v>
@@ -4150,19 +4150,19 @@
         <v>1.73372587504092</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01088807560776453</v>
+        <v>-0.0206877643940525</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1043376636214302</v>
+        <v>-0.1364591138221079</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1043542209960717</v>
+        <v>0.1516041238624902</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0836107676210406</v>
+        <v>0.0023504758717675</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0073947667804323</v>
+        <v>0.0203389830508474</v>
       </c>
       <c r="I75" t="n">
         <v>0.03176450741322184</v>
@@ -4200,19 +4200,19 @@
         <v>1.88434048083172</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01502106968017586</v>
+        <v>-0.02185493245189613</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1052600736665287</v>
+        <v>-0.1227210893932011</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1427043432228982</v>
+        <v>0.1780861998533311</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0717671908002816</v>
+        <v>0.0023440088687805</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0045781556572923</v>
+        <v>0.008726003490401301</v>
       </c>
       <c r="I76" t="n">
         <v>0.03561467717723606</v>
@@ -4250,19 +4250,19 @@
         <v>1.98567708333333</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02025124027440044</v>
+        <v>-0.02898272704783507</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1136647203375072</v>
+        <v>-0.140851372497053</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1781664549410581</v>
+        <v>0.205768154999281</v>
       </c>
       <c r="G77" t="n">
-        <v>0.08383356420912209</v>
+        <v>0.0032247485789243</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0061199510403916</v>
+        <v>0.0127118644067796</v>
       </c>
       <c r="I77" t="n">
         <v>0.02681826126317237</v>
@@ -4300,19 +4300,19 @@
         <v>1.3671875</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01666566945581041</v>
+        <v>-0.02739112869106909</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1196190456749778</v>
+        <v>-0.1506172875022654</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1393228758996576</v>
+        <v>0.1818591288244857</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0597879442371883</v>
+        <v>0.0024539877300613</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0065681444991789</v>
+        <v>0.0189655172413793</v>
       </c>
       <c r="I78" t="n">
         <v>0.027471942490991</v>
